--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22575" yWindow="0" windowWidth="18690" windowHeight="11685"/>
+    <workbookView xWindow="23805" yWindow="0" windowWidth="18690" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="result-1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Model</t>
   </si>
@@ -73,13 +73,23 @@
   </si>
   <si>
     <t>892816,57</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>eta: 0.05
+max_depth: 8
+subsample: 0.7
+colsample_bytree: 0.7
+reg:linear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +118,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -123,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -159,11 +176,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -184,6 +281,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -495,11 +625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -566,31 +696,136 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:11" ht="56.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:J1048576">
     <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="2"/>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23805" yWindow="0" windowWidth="18690" windowHeight="11685"/>
+    <workbookView xWindow="25305" yWindow="0" windowWidth="18690" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="result-1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -81,8 +81,23 @@
     <t>eta: 0.05
 max_depth: 8
 subsample: 0.7
-colsample_bytree: 0.7
-reg:linear</t>
+colsample_bytree: 0.7</t>
+  </si>
+  <si>
+    <t>binary:logistic
+eta: 0.2
+max_depth: 5
+min_child_weight: 1
+subsample: 0.6
+colsample_bytree: 0.6
+alpha: 2.0
+lambda: 12.0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>xgboost_tuner has bug</t>
   </si>
 </sst>
 </file>
@@ -260,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -286,9 +301,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -298,29 +310,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8EB25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF57D3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF57D3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8EB25"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -625,17 +674,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="4" customWidth="1"/>
@@ -648,7 +697,7 @@
     <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="2.25" customHeight="1">
+    <row r="1" spans="1:12" ht="2.25" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="3"/>
       <c r="C1" s="5"/>
@@ -661,7 +710,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:12" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -696,107 +745,132 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="56.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:12" ht="45">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="12">
+      <c r="J3" s="9"/>
+      <c r="K3" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="17"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+    <row r="6" spans="1:12" ht="90">
+      <c r="A6" s="16">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11">
+        <v>7</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -809,7 +883,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -823,15 +897,16 @@
       <c r="K10" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25305" yWindow="0" windowWidth="18690" windowHeight="11685"/>
+    <workbookView xWindow="26805" yWindow="0" windowWidth="18690" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="result-1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>catboost</t>
-  </si>
-  <si>
-    <t>gini</t>
   </si>
   <si>
     <t>kfold</t>
@@ -98,6 +95,29 @@
   </si>
   <si>
     <t>xgboost_tuner has bug</t>
+  </si>
+  <si>
+    <t>gini of each fold</t>
+  </si>
+  <si>
+    <t>binary
+auc
+learning_rate:0.025
+max_depth: 6
+num_leaves: 50
+min_data_in_leaf: 200
+max_bin: 50</t>
+  </si>
+  <si>
+    <t>binary:logistic
+auc
+eta: 0.005
+max_depth: 5
+min_child_weight: 1
+subsample: 0.8
+colsample_bytree: 0.8
+alpha: 0.4
+lambda: 4.0</t>
   </si>
 </sst>
 </file>
@@ -275,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -298,9 +318,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -322,26 +339,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -353,20 +376,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF57D3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57D3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8EB25"/>
         </patternFill>
       </fill>
     </dxf>
@@ -674,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -727,13 +736,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -746,167 +755,183 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
-      <c r="A3" s="16">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11">
+      <c r="J3" s="8"/>
+      <c r="K3" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="17"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="18"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="90">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10">
+        <v>7</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="11">
-        <v>7</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="17"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="18"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
+    <row r="8" spans="1:12" ht="101.25">
+      <c r="A8" s="17">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+    <row r="9" spans="1:12" ht="78.75">
+      <c r="A9" s="19"/>
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="top10" dxfId="2" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="3" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="3" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>github version</t>
-  </si>
-  <si>
-    <t>catboost</t>
   </si>
   <si>
     <t>kfold</t>
@@ -118,6 +115,28 @@
 colsample_bytree: 0.8
 alpha: 0.4
 lambda: 4.0</t>
+  </si>
+  <si>
+    <t>1.0 : 0.0 =&gt; 
+0.9 : 0.1 =&gt;
+0.8 : 0.2=&gt;
+0.7 : 0.3 =&gt;
+0.6 : 0.4 =&gt;
+0.5 : 0.5 =&gt;
+0.4 : 0.6 =&gt;
+0.3 : 0.7 =&gt;
+0.2 : 0.8 =&gt;
+0.1 : 0.9 =&gt;
+0.0 : 1.0 =&gt;</t>
+  </si>
+  <si>
+    <t>1:
+2:
+3:
+4:
+5:
+mean:
+std:</t>
   </si>
 </sst>
 </file>
@@ -175,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -252,15 +271,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -295,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,19 +334,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -351,14 +352,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -736,13 +764,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -755,183 +783,178 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
-      <c r="A3" s="17">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="8">
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <v>0.28000000000000003</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="10">
+      <c r="K3" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="18"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="19"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+    <row r="5" spans="1:12" ht="90">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="26">
+        <v>7</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="90">
-      <c r="A6" s="17">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="16"/>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="101.25">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10">
-        <v>7</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="26"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="19"/>
-      <c r="B7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    <row r="8" spans="1:12" ht="89.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" ht="101.25">
-      <c r="A8" s="17">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="78.75">
-      <c r="A9" s="19"/>
-      <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
+      <c r="D8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I1:J1048576">
-    <cfRule type="top10" dxfId="3" priority="2" rank="2"/>
+  <conditionalFormatting sqref="I9:J1048576 I1:J7 J8">
+    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="2" priority="1" rank="1"/>
+  <conditionalFormatting sqref="I9:I1048576 I1:I7">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -715,7 +715,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7:K8"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26805" yWindow="0" windowWidth="18690" windowHeight="11685"/>
+    <workbookView xWindow="28305" yWindow="0" windowWidth="18690" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="result-1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Model</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>xgboost_tuner has bug</t>
   </si>
   <si>
     <t>gini of each fold</t>
@@ -117,26 +114,38 @@
 lambda: 4.0</t>
   </si>
   <si>
+    <t>xgboost_tuner had  bugs</t>
+  </si>
+  <si>
     <t>1.0 : 0.0 =&gt; 
 0.9 : 0.1 =&gt;
 0.8 : 0.2=&gt;
 0.7 : 0.3 =&gt;
 0.6 : 0.4 =&gt;
 0.5 : 0.5 =&gt;
-0.4 : 0.6 =&gt;
-0.3 : 0.7 =&gt;
-0.2 : 0.8 =&gt;
-0.1 : 0.9 =&gt;
-0.0 : 1.0 =&gt;</t>
-  </si>
-  <si>
-    <t>1:
-2:
-3:
-4:
-5:
-mean:
-std:</t>
+0.4 : 0.6 =&gt; 0.278
+0.3 : 0.7 =&gt; 0.278
+0.2 : 0.8 =&gt; 0.277
+0.1 : 0.9 =&gt; 0.277
+0.0 : 1.0 =&gt; 0.276</t>
+  </si>
+  <si>
+    <t>1: 0.280914/2447
+2: 0.284366/2557
+3: 0.283318/2496
+4: 0.290164/2465
+5: 0.277538/2864
+mean: 0.28326
+std: 0.00467</t>
+  </si>
+  <si>
+    <t>1: 0.275542/3007
+2: 0.279207/3047
+3: 0.279335/3797
+4: 0.242639/345
+5: 0.273251/3261
+mean: 0.27039
+std: 0.01571</t>
   </si>
 </sst>
 </file>
@@ -346,34 +355,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,21 +401,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8EB25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57D3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -713,9 +708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -727,8 +722,8 @@
     <col min="5" max="5" width="10.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="6" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="4"/>
@@ -770,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -783,7 +778,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
-      <c r="A3" s="14">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -814,7 +809,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="15"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>8</v>
@@ -823,13 +818,13 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="10"/>
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="90">
-      <c r="A5" s="14">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -850,8 +845,8 @@
       <c r="G5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18">
         <v>0.27600000000000002</v>
       </c>
       <c r="J5" s="8"/>
@@ -859,11 +854,11 @@
         <v>7</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="16"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -876,13 +871,13 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="11"/>
       <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="101.25">
-      <c r="A7" s="14">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -892,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>17</v>
@@ -903,39 +898,41 @@
       <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="26"/>
+      <c r="K7" s="26">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="89.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="25"/>
       <c r="J8" s="11"/>
       <c r="K8" s="27"/>
     </row>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28305" yWindow="0" windowWidth="18690" windowHeight="11685"/>
+    <workbookView xWindow="29805" yWindow="0" windowWidth="18690" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="result-1" sheetId="6" r:id="rId1"/>
@@ -708,15 +708,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="4" customWidth="1"/>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\github\kaggle_safe_driver_prediction.git\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\others\ka_safe_driver_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29805" yWindow="0" windowWidth="18690" windowHeight="11685"/>
+    <workbookView xWindow="31470" yWindow="0" windowWidth="18690" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result-1" sheetId="6" r:id="rId1"/>
@@ -117,19 +117,6 @@
     <t>xgboost_tuner had  bugs</t>
   </si>
   <si>
-    <t>1.0 : 0.0 =&gt; 
-0.9 : 0.1 =&gt;
-0.8 : 0.2=&gt;
-0.7 : 0.3 =&gt;
-0.6 : 0.4 =&gt;
-0.5 : 0.5 =&gt;
-0.4 : 0.6 =&gt; 0.278
-0.3 : 0.7 =&gt; 0.278
-0.2 : 0.8 =&gt; 0.277
-0.1 : 0.9 =&gt; 0.277
-0.0 : 1.0 =&gt; 0.276</t>
-  </si>
-  <si>
     <t>1: 0.280914/2447
 2: 0.284366/2557
 3: 0.283318/2496
@@ -147,22 +134,36 @@
 mean: 0.27039
 std: 0.01571</t>
   </si>
+  <si>
+    <t>1.0 : 0.0 =&gt; 0.280
+0.9 : 0.1 =&gt; 0.280
+0.8 : 0.2=&gt; N/A
+0.7 : 0.3 =&gt; N/A
+0.6 : 0.4 =&gt; N/A
+0.5 : 0.5 =&gt; N/A
+0.4 : 0.6 =&gt; 0.278
+0.3 : 0.7 =&gt; 0.278
+0.2 : 0.8 =&gt; 0.277
+0.1 : 0.9 =&gt; 0.277
+0.0 : 1.0 =&gt; 0.276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -170,21 +171,21 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -705,31 +706,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="17.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="2.25" customHeight="1">
+    <row r="1" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="3"/>
       <c r="C1" s="5"/>
@@ -742,7 +743,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1">
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -777,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -808,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
@@ -823,7 +824,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="1:12" ht="90">
+    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>2</v>
       </c>
@@ -857,7 +858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>14</v>
@@ -876,7 +877,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="27"/>
     </row>
-    <row r="7" spans="1:12" ht="101.25">
+    <row r="7" spans="1:12" ht="101.25" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>3</v>
       </c>
@@ -899,17 +900,17 @@
         <v>17</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="26">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="89.25">
+    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="11" t="s">
         <v>14</v>
@@ -930,7 +931,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="11"/>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\others\ka_safe_driver_prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\github\kaggle_safe_driver_prediction.git\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31470" yWindow="0" windowWidth="18690" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34470" yWindow="0" windowWidth="18690" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="result-1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -148,22 +148,135 @@
 0.0 : 1.0 =&gt; 0.276</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>binary
+auc
+learning_rate:0.025
+max_depth: 6
+num_leaves: 50
+min_data_in_leaf: 200
+max_bin: 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    drop_features = ['ps_ind_10_bin',
+                     'ps_ind_11_bin',
+                     'ps_calc_16_bin',
+                     'ps_calc_15_bin',
+                     'ps_calc_20_bin',
+                     'ps_calc_18_bin',
+                     'ps_ind_13_bin',
+                     'ps_ind_18_bin',
+                     'ps_calc_19_bin',
+                     'ps_calc_17_bin',
+                     'ps_car_08_cat',
+                     'ps_ind_09_bin',
+                     'ps_car_02_cat',
+                     'ps_ind_14']</t>
+  </si>
+  <si>
+    <t>binary:logistic
+auc
+eta: 0.005
+max_depth: 5
+min_child_weight: 1
+subsample: 0.8
+colsample_bytree: 0.8
+alpha: 2.4
+lambda: 14.0</t>
+  </si>
+  <si>
+    <t>BAD</t>
+  </si>
+  <si>
+    <t>1: 0.280552/2496
+2: 0.283831/2608
+3: 0.283319/2532
+4: 0.291749/3182
+5: 0.275225/2172
+mean: 0.28294
+std: 0.00599</t>
+  </si>
+  <si>
+    <t>1.0 : 0.0 =&gt; 0.280
+0.9 : 0.1 =&gt; 0.279
+0.8 : 0.2=&gt; N/A
+0.7 : 0.3 =&gt; N/A
+0.6 : 0.4 =&gt; N/A
+0.5 : 0.5 =&gt; N/A
+0.4 : 0.6 =&gt; N/A
+0.3 : 0.7 =&gt; N/A
+0.2 : 0.8 =&gt; N/A
+0.1 : 0.9 =&gt; N/A
+0.0 : 1.0 =&gt; N/A</t>
+  </si>
+  <si>
+    <t>lightgbm is remarkabl worst than xgboost</t>
+  </si>
+  <si>
+    <t>removing features cause smaller gini (NG)</t>
+  </si>
+  <si>
+    <t>binary:logistic
+auc
+eta: 0.005
+max_depth: 5
+min_child_weight: 1
+subsample: 0.8
+colsample_bytree: 0.8
+alpha: 2.4
+lambda: 14.1</t>
+  </si>
+  <si>
+    <t>binary
+auc
+learning_rate:0.025
+max_depth: 6
+num_leaves: 50
+min_data_in_leaf: 200
+max_bin: 52</t>
+  </si>
+  <si>
+    <t>- remov unuseful features
+- remove outliers</t>
+  </si>
+  <si>
+    <t>1.0 : 0.0 =&gt; 0.279
+0.9 : 0.1 =&gt; N/A
+0.8 : 0.2=&gt; N/A
+0.7 : 0.3 =&gt; N/A
+0.6 : 0.4 =&gt; N/A
+0.5 : 0.5 =&gt; N/A
+0.4 : 0.6 =&gt; N/A
+0.3 : 0.7 =&gt; N/A
+0.2 : 0.8 =&gt; N/A
+0.1 : 0.9 =&gt; N/A
+0.0 : 1.0 =&gt; N/A</t>
+  </si>
+  <si>
+    <t>1: 0.281992/2575
+2: 0.280745/2910
+3: 0.281492/2507
+4: 0.292458/2896
+5: 0.275377/2276
+mean: 0.28241
+std: 0.00621</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -171,21 +284,21 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -315,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,32 +490,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8EB25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF57D3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -706,31 +860,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="4"/>
+    <col min="8" max="8" width="17.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="2.25" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="3"/>
       <c r="C1" s="5"/>
@@ -743,7 +897,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,8 +932,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+    <row r="3" spans="1:12" ht="45">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -805,12 +959,12 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="26">
+      <c r="K3" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="35"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>8</v>
@@ -822,10 +976,10 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="27"/>
+      <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+    <row r="5" spans="1:12" ht="90">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -851,15 +1005,15 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="26">
+      <c r="K5" s="31">
         <v>7</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -875,10 +1029,10 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="27"/>
+      <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:12" ht="101.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+    <row r="7" spans="1:12" ht="101.25">
+      <c r="A7" s="27">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -902,16 +1056,16 @@
       <c r="H7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="29" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="26">
+      <c r="K7" s="31">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A8" s="28"/>
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
@@ -933,12 +1087,137 @@
       <c r="H8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="101.25">
+      <c r="A9" s="27">
+        <v>4</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="101.25">
+      <c r="B11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="78.75">
+      <c r="B12" s="34"/>
+      <c r="C12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -948,11 +1227,11 @@
     <mergeCell ref="K7:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I9:J1048576 I1:J7 J8">
-    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
+  <conditionalFormatting sqref="I13:J1048576 I1:J7 J8 I9:J9 J10 I11:J11 J12">
+    <cfRule type="top10" dxfId="3" priority="2" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I1048576 I1:I7">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  <conditionalFormatting sqref="I13:I1048576 I1:I7 I9 I11">
+    <cfRule type="top10" dxfId="2" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34470" yWindow="0" windowWidth="18690" windowHeight="11685"/>
+    <workbookView xWindow="35970" yWindow="0" windowWidth="18690" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="result-1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>Model</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>LB</t>
-  </si>
-  <si>
-    <t>Index</t>
   </si>
   <si>
     <t>lightgbm</t>
@@ -133,20 +130,6 @@
 5: 0.273251/3261
 mean: 0.27039
 std: 0.01571</t>
-  </si>
-  <si>
-    <t>1.0 : 0.0 =&gt; 0.280
-0.9 : 0.1 =&gt; 0.280
-0.8 : 0.2=&gt; N/A
-0.7 : 0.3 =&gt; N/A
-0.6 : 0.4 =&gt; N/A
-0.5 : 0.5 =&gt; N/A
-0.4 : 0.6 =&gt; 0.278
-0.3 : 0.7 =&gt; 0.278
-0.2 : 0.8 =&gt; 0.277
-0.1 : 0.9 =&gt; 0.277
-0.0 : 1.0 =&gt; 0.276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>binary
@@ -197,19 +180,6 @@
 std: 0.00599</t>
   </si>
   <si>
-    <t>1.0 : 0.0 =&gt; 0.280
-0.9 : 0.1 =&gt; 0.279
-0.8 : 0.2=&gt; N/A
-0.7 : 0.3 =&gt; N/A
-0.6 : 0.4 =&gt; N/A
-0.5 : 0.5 =&gt; N/A
-0.4 : 0.6 =&gt; N/A
-0.3 : 0.7 =&gt; N/A
-0.2 : 0.8 =&gt; N/A
-0.1 : 0.9 =&gt; N/A
-0.0 : 1.0 =&gt; N/A</t>
-  </si>
-  <si>
     <t>lightgbm is remarkabl worst than xgboost</t>
   </si>
   <si>
@@ -240,19 +210,6 @@
 - remove outliers</t>
   </si>
   <si>
-    <t>1.0 : 0.0 =&gt; 0.279
-0.9 : 0.1 =&gt; N/A
-0.8 : 0.2=&gt; N/A
-0.7 : 0.3 =&gt; N/A
-0.6 : 0.4 =&gt; N/A
-0.5 : 0.5 =&gt; N/A
-0.4 : 0.6 =&gt; N/A
-0.3 : 0.7 =&gt; N/A
-0.2 : 0.8 =&gt; N/A
-0.1 : 0.9 =&gt; N/A
-0.0 : 1.0 =&gt; N/A</t>
-  </si>
-  <si>
     <t>1: 0.281992/2575
 2: 0.280745/2910
 3: 0.281492/2507
@@ -260,6 +217,94 @@
 5: 0.275377/2276
 mean: 0.28241
 std: 0.00621</t>
+  </si>
+  <si>
+    <t>n_estimators: 300
+max_depth = 4
+objective = "binary:logistic"
+learning_rate = 0.07
+subsample = .8
+colsample_bytree = .8
+scale_pos_weight = 1.7
+gamma = 8
+reg_alpha = 0.5
+reg_lambda = 1.3</t>
+  </si>
+  <si>
+    <t>train.py</t>
+  </si>
+  <si>
+    <t>train_v2.py</t>
+  </si>
+  <si>
+    <t>n_estimators: 3000
+'</t>
+  </si>
+  <si>
+    <t>xgboost: XGBClassifier, fit without early stopping</t>
+  </si>
+  <si>
+    <t>xgboost: XGBClassifier with early stopping</t>
+  </si>
+  <si>
+    <t>1: 0.2826486/300
+2: 0.2807436/300
+3: 0.27447288/300
+4: 0.29924068/300
+5: 0.28663726/300
+mean: 0.28475
+std: 0.00921</t>
+  </si>
+  <si>
+    <t>1: 0.283146/2290
+2: 0.280710/2982
+3: 0.273565/2570
+4: 0.300000/2719
+5: 0.285809/3000
+mean: 0.28465
+std: 0.00927</t>
+  </si>
+  <si>
+    <t>submit num</t>
+  </si>
+  <si>
+    <t>xgb_submit.7z</t>
+  </si>
+  <si>
+    <t>xgb_submit.csv</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>CV gini</t>
+  </si>
+  <si>
+    <t>1.0 : 0.0 =&gt; 0.280
+0.9 : 0.1 =&gt; 0.280
+0.4 : 0.6 =&gt; 0.278
+0.3 : 0.7 =&gt; 0.278
+0.2 : 0.8 =&gt; 0.277
+0.1 : 0.9 =&gt; 0.277
+0.0 : 1.0 =&gt; 0.276</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>train_v2.py
+xgboost_cv_5_folds</t>
+  </si>
+  <si>
+    <t>- same as above but not used feature_encode</t>
+  </si>
+  <si>
+    <t>1: 0.283000/300
+2: 0.279189/300
+3: 0.274308/300
+4: 0.298573/300
+5: 0.283196/300
+std: 0.00909</t>
   </si>
 </sst>
 </file>
@@ -317,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -424,11 +469,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -508,41 +577,105 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8EB25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF57D3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8EB25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF57D3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -861,16 +994,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
@@ -878,13 +1011,15 @@
     <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="10.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="2.25" customHeight="1">
+    <row r="1" spans="1:14" ht="2.25" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="3"/>
       <c r="C1" s="5"/>
@@ -893,13 +1028,15 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1">
+      <c r="I1" s="7"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -914,60 +1051,68 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45">
-      <c r="A3" s="27">
-        <v>1</v>
+      <c r="M2" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="45">
+      <c r="A3" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="8">
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="8">
+      <c r="I3" s="29"/>
+      <c r="J3" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="31">
+      <c r="K3" s="8"/>
+      <c r="L3" s="34">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="35"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="39"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -975,262 +1120,392 @@
       <c r="G4" s="10"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:12" ht="90">
-      <c r="A5" s="27">
-        <v>2</v>
+      <c r="J4" s="16"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" ht="90">
+      <c r="A5" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="18">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
         <v>0.27600000000000002</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="31">
+      <c r="K5" s="8"/>
+      <c r="L5" s="34">
         <v>7</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="28"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="39"/>
       <c r="B6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" spans="1:12" ht="101.25">
-      <c r="A7" s="27">
-        <v>3</v>
+      <c r="J6" s="17"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="101.25">
+      <c r="A7" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.28361999999999998</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="34">
+        <v>13</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="101.25">
+      <c r="A9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>24</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="101.25">
-      <c r="A9" s="27">
-        <v>4</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="21" t="s">
+      <c r="I9" s="27">
+        <v>0.28294000000000002</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="34">
+        <v>16</v>
+      </c>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="13" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="101.25">
+      <c r="A11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="101.25">
-      <c r="B11" s="36" t="s">
-        <v>35</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="I11" s="27">
+        <v>0.28240999999999999</v>
+      </c>
+      <c r="J11" s="32">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="34">
         <v>17</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="23" t="s">
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="123.75">
+      <c r="A13" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="45">
+        <v>0.28475</v>
+      </c>
+      <c r="J13" s="43">
+        <v>0.83</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="46">
+        <v>19</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="89.25">
+      <c r="A14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="78.75">
-      <c r="B12" s="34"/>
-      <c r="C12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="45">
+        <v>0.28465000000000001</v>
+      </c>
+      <c r="J14" s="43">
+        <v>0.82</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="46">
+        <v>20</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="123.75">
+      <c r="A15" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="32"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="45">
+        <v>0.28365000000000001</v>
+      </c>
+      <c r="J15" s="43">
+        <v>0.82</v>
+      </c>
+      <c r="K15" s="43">
+        <v>4</v>
+      </c>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="B9:B10"/>
+  <mergeCells count="15">
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I13:J1048576 I1:J7 J8 I9:J9 J10 I11:J11 J12">
-    <cfRule type="top10" dxfId="3" priority="2" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I1048576 I1:I7 I9 I11">
+  <conditionalFormatting sqref="J1:J7 J9 J11 J13:J1048576">
     <cfRule type="top10" dxfId="2" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35970" yWindow="0" windowWidth="18690" windowHeight="11685"/>
+    <workbookView xWindow="37470" yWindow="0" windowWidth="18690" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="result-1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>Model</t>
   </si>
@@ -112,15 +112,6 @@
   </si>
   <si>
     <t>xgboost_tuner had  bugs</t>
-  </si>
-  <si>
-    <t>1: 0.280914/2447
-2: 0.284366/2557
-3: 0.283318/2496
-4: 0.290164/2465
-5: 0.277538/2864
-mean: 0.28326
-std: 0.00467</t>
   </si>
   <si>
     <t>1: 0.275542/3007
@@ -171,15 +162,6 @@
     <t>BAD</t>
   </si>
   <si>
-    <t>1: 0.280552/2496
-2: 0.283831/2608
-3: 0.283319/2532
-4: 0.291749/3182
-5: 0.275225/2172
-mean: 0.28294
-std: 0.00599</t>
-  </si>
-  <si>
     <t>lightgbm is remarkabl worst than xgboost</t>
   </si>
   <si>
@@ -208,15 +190,6 @@
   <si>
     <t>- remov unuseful features
 - remove outliers</t>
-  </si>
-  <si>
-    <t>1: 0.281992/2575
-2: 0.280745/2910
-3: 0.281492/2507
-4: 0.292458/2896
-5: 0.275377/2276
-mean: 0.28241
-std: 0.00621</t>
   </si>
   <si>
     <t>n_estimators: 300
@@ -247,24 +220,6 @@
     <t>xgboost: XGBClassifier with early stopping</t>
   </si>
   <si>
-    <t>1: 0.2826486/300
-2: 0.2807436/300
-3: 0.27447288/300
-4: 0.29924068/300
-5: 0.28663726/300
-mean: 0.28475
-std: 0.00921</t>
-  </si>
-  <si>
-    <t>1: 0.283146/2290
-2: 0.280710/2982
-3: 0.273565/2570
-4: 0.300000/2719
-5: 0.285809/3000
-mean: 0.28465
-std: 0.00927</t>
-  </si>
-  <si>
     <t>submit num</t>
   </si>
   <si>
@@ -305,6 +260,85 @@
 4: 0.298573/300
 5: 0.283196/300
 std: 0.00909</t>
+  </si>
+  <si>
+    <t>same as (11)</t>
+  </si>
+  <si>
+    <t>same as (11) but selected features are same with (14)</t>
+  </si>
+  <si>
+    <t>1: 0.280683/2331
+2: 0.281193/2387
+3: 0.280687/2436
+4: 0.292745/2860
+5: 0.27546/2260
+std: 0.00637</t>
+  </si>
+  <si>
+    <t>1: 0.280914/2447
+2: 0.284366/2557
+3: 0.283318/2496
+4: 0.290164/2465
+5: 0.277538/2864
+std: 0.00467</t>
+  </si>
+  <si>
+    <t>1: 0.280552/2496
+2: 0.283831/2608
+3: 0.283319/2532
+4: 0.291749/3182
+5: 0.275225/2172
+std: 0.00599</t>
+  </si>
+  <si>
+    <t>1: 0.281992/2575
+2: 0.280745/2910
+3: 0.281492/2507
+4: 0.292458/2896
+5: 0.275377/2276
+std: 0.00621</t>
+  </si>
+  <si>
+    <t>1: 0.2826486/300
+2: 0.2807436/300
+3: 0.27447288/300
+4: 0.29924068/300
+5: 0.28663726/300
+std: 0.00921</t>
+  </si>
+  <si>
+    <t>1: 0.283146/2290
+2: 0.280710/2982
+3: 0.273565/2570
+4: 0.300000/2719
+5: 0.285809/3000
+std: 0.00927</t>
+  </si>
+  <si>
+    <t>as (7)</t>
+  </si>
+  <si>
+    <t>xgboost;
+early stopping</t>
+  </si>
+  <si>
+    <t>binary:logistic
+auc
+eta: 0.005
+max_depth: 4
+min_child_weight: 1
+subsample: 0.8
+colsample_bytree: 0.8
+alpha: 2.4
+lambda: 14.0</t>
+  </si>
+  <si>
+    <t>1: NA
+2: NA
+3: NA
+4: 0.289965/3502
+5: NA</t>
   </si>
 </sst>
 </file>
@@ -586,10 +620,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -604,50 +668,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -658,49 +692,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF57D3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFD8EB25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57D3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8EB25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57D3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8EB25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF57D3FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -996,9 +988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1036,7 +1028,7 @@
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1060,7 +1052,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>6</v>
@@ -1071,13 +1063,13 @@
       <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="41" t="s">
-        <v>42</v>
+      <c r="M2" s="31" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="45">
-      <c r="A3" s="36" t="s">
-        <v>35</v>
+      <c r="A3" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>13</v>
@@ -1103,13 +1095,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="34">
+      <c r="L3" s="44">
         <v>4</v>
       </c>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="39"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>7</v>
@@ -1122,12 +1114,12 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="35"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="90">
-      <c r="A5" s="36" t="s">
-        <v>35</v>
+      <c r="A5" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
@@ -1153,7 +1145,7 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="34">
+      <c r="L5" s="44">
         <v>7</v>
       </c>
       <c r="M5" s="10"/>
@@ -1162,7 +1154,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="39"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1179,12 +1171,12 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="35"/>
+      <c r="L6" s="45"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:14" ht="101.25">
-      <c r="A7" s="36" t="s">
-        <v>35</v>
+    <row r="7" spans="1:14" ht="105.75" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
@@ -1205,22 +1197,22 @@
         <v>16</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I7" s="27">
         <v>0.28361999999999998</v>
       </c>
-      <c r="J7" s="32" t="s">
-        <v>47</v>
+      <c r="J7" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="34">
+      <c r="L7" s="44">
         <v>13</v>
       </c>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1240,29 +1232,29 @@
         <v>16</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="28"/>
-      <c r="J8" s="33"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="35"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="10"/>
       <c r="N8" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="101.25">
-      <c r="A9" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>24</v>
+      <c r="A9" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>16</v>
@@ -1274,28 +1266,28 @@
         <v>16</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I9" s="27">
         <v>0.28294000000000002</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>48</v>
+      <c r="J9" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="34">
+      <c r="L9" s="44">
         <v>16</v>
       </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>16</v>
@@ -1307,29 +1299,29 @@
         <v>16</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="28"/>
-      <c r="J10" s="33"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="35"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="10"/>
       <c r="N10" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="101.25">
-      <c r="A11" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="39" t="s">
         <v>32</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>16</v>
@@ -1341,172 +1333,226 @@
         <v>16</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I11" s="27">
         <v>0.28240999999999999</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="42">
         <v>0.27900000000000003</v>
       </c>
       <c r="K11" s="25"/>
-      <c r="L11" s="34">
+      <c r="L11" s="44">
         <v>17</v>
       </c>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="123.75">
+      <c r="A13" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" ht="123.75">
-      <c r="A13" s="42" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0.28475</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0.83</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="36">
+        <v>19</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="76.5">
+      <c r="A14" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43" t="s">
+      <c r="D14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="35">
+        <v>0.28465000000000001</v>
+      </c>
+      <c r="J14" s="33">
+        <v>0.82</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="36">
+        <v>20</v>
+      </c>
+      <c r="M14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="45">
-        <v>0.28475</v>
-      </c>
-      <c r="J13" s="43">
-        <v>0.83</v>
-      </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="46">
-        <v>19</v>
-      </c>
-      <c r="M13" s="40" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="123.75">
+      <c r="A15" s="32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="89.25">
-      <c r="A14" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="45">
-        <v>0.28465000000000001</v>
-      </c>
-      <c r="J14" s="43">
+      <c r="B15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0.28365000000000001</v>
+      </c>
+      <c r="J15" s="33">
         <v>0.82</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="46">
-        <v>20</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="123.75">
-      <c r="A15" s="42" t="s">
+      <c r="K15" s="33">
+        <v>4</v>
+      </c>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" spans="1:14" ht="76.5">
+      <c r="A16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="45">
-        <v>0.28365000000000001</v>
-      </c>
-      <c r="J15" s="43">
-        <v>0.82</v>
-      </c>
-      <c r="K15" s="43">
+      <c r="I16" s="35">
+        <v>0.28215000000000001</v>
+      </c>
+      <c r="J16" s="33">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="K16" s="33">
         <v>4</v>
       </c>
-      <c r="L15" s="46"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="6:6">
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" ht="101.25">
+      <c r="A17" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="35">
+        <v>0.28996499999999997</v>
+      </c>
+      <c r="J17" s="33">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="1:12">
       <c r="F19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1:J7 J9 J11 J13:J1048576">
-    <cfRule type="top10" dxfId="2" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/training_result.xlsx
+++ b/training_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37470" yWindow="0" windowWidth="18690" windowHeight="11685"/>
+    <workbookView xWindow="38970" yWindow="0" windowWidth="18690" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="result-1" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Model</t>
   </si>
@@ -339,6 +339,27 @@
 3: NA
 4: 0.289965/3502
 5: NA</t>
+  </si>
+  <si>
+    <t>n_estimators: 400
+max_depth = 4
+objective = "binary:logistic"
+learning_rate = 0.07
+subsample = .8
+min_child_weight=6
+colsample_bytree = .8
+scale_pos_weight = 1.6
+gamma = 10
+reg_alpha = 8
+reg_lambda = 1.3</t>
+  </si>
+  <si>
+    <t>1: 0.286825/400
+2: 0.283424/400
+3: 0.277038/400
+4: 0.301488/400
+5: 0.286526/400
+std: 0.00921</t>
   </si>
 </sst>
 </file>
@@ -647,13 +668,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -662,26 +686,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8EB25"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -989,8 +1017,8 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1068,7 +1096,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="45">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1095,13 +1123,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="44">
+      <c r="L3" s="39">
         <v>4</v>
       </c>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="41"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>7</v>
@@ -1114,11 +1142,11 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="45"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="90">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1145,7 +1173,7 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="44">
+      <c r="L5" s="39">
         <v>7</v>
       </c>
       <c r="M5" s="10"/>
@@ -1154,7 +1182,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="41"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1171,11 +1199,11 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="45"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="105.75" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1202,17 +1230,17 @@
       <c r="I7" s="27">
         <v>0.28361999999999998</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="43" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="44">
+      <c r="L7" s="39">
         <v>13</v>
       </c>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1235,19 +1263,19 @@
         <v>21</v>
       </c>
       <c r="I8" s="28"/>
-      <c r="J8" s="43"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="45"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="10"/>
       <c r="N8" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="101.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1271,18 +1299,18 @@
       <c r="I9" s="27">
         <v>0.28294000000000002</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="43" t="s">
         <v>43</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="44">
+      <c r="L9" s="39">
         <v>16</v>
       </c>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
@@ -1302,19 +1330,19 @@
         <v>25</v>
       </c>
       <c r="I10" s="28"/>
-      <c r="J10" s="43"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="10"/>
       <c r="N10" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="101.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="41" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -1338,18 +1366,18 @@
       <c r="I11" s="27">
         <v>0.28240999999999999</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="43">
         <v>0.27900000000000003</v>
       </c>
       <c r="K11" s="25"/>
-      <c r="L11" s="44">
+      <c r="L11" s="39">
         <v>17</v>
       </c>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="26" t="s">
         <v>7</v>
       </c>
@@ -1369,9 +1397,9 @@
         <v>25</v>
       </c>
       <c r="I12" s="28"/>
-      <c r="J12" s="43"/>
+      <c r="J12" s="44"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="45"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="123.75">
@@ -1395,7 +1423,7 @@
         <v>0.28475</v>
       </c>
       <c r="J13" s="33">
-        <v>0.83</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="36">
@@ -1426,7 +1454,7 @@
         <v>0.28465000000000001</v>
       </c>
       <c r="J14" s="33">
-        <v>0.82</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="36">
@@ -1459,7 +1487,7 @@
         <v>0.28365000000000001</v>
       </c>
       <c r="J15" s="33">
-        <v>0.82</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="K15" s="33">
         <v>4</v>
@@ -1526,14 +1554,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="F18" s="6"/>
+    <row r="18" spans="1:12" ht="135">
+      <c r="A18" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="35">
+        <v>0.28705999999999998</v>
+      </c>
+      <c r="J18" s="33">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="36">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="F19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="L7:L8"/>
@@ -1543,15 +1602,12 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1:J7 J9 J11 J13:J1048576">
+  <conditionalFormatting sqref="J1:J7 J9 J11 J13:J17 J19:J1048576">
+    <cfRule type="top10" dxfId="2" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="top10" dxfId="1" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
